--- a/REGULAR/MAHOGANY MARKET/ESTRANGCO, MERCY.xlsx
+++ b/REGULAR/MAHOGANY MARKET/ESTRANGCO, MERCY.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="209">
   <si>
     <t>PERIOD</t>
   </si>
@@ -657,6 +657,9 @@
   </si>
   <si>
     <t>UT(0-6-46)</t>
+  </si>
+  <si>
+    <t>11/13,14/2023</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1348,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K446" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K447" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1674,11 +1677,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K446"/>
+  <dimension ref="A2:K447"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4170" topLeftCell="A386" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="K401" sqref="K401"/>
+      <pane ySplit="4170" topLeftCell="A389" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="K404" sqref="K404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,7 +1844,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>172.86099999999999</v>
+        <v>174.11099999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1851,7 +1854,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>212.54200000000003</v>
+        <v>209.79200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10573,10 +10576,10 @@
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A402" s="40">
-        <v>45230</v>
-      </c>
-      <c r="B402" s="20"/>
+      <c r="A402" s="40"/>
+      <c r="B402" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="C402" s="13"/>
       <c r="D402" s="39"/>
       <c r="E402" s="9"/>
@@ -10585,34 +10588,48 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H402" s="39"/>
+      <c r="H402" s="39">
+        <v>1</v>
+      </c>
       <c r="I402" s="9"/>
       <c r="J402" s="11"/>
-      <c r="K402" s="20"/>
+      <c r="K402" s="48">
+        <v>45198</v>
+      </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
-        <v>45260</v>
-      </c>
-      <c r="B403" s="20"/>
-      <c r="C403" s="13"/>
+        <v>45230</v>
+      </c>
+      <c r="B403" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C403" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D403" s="39"/>
       <c r="E403" s="9"/>
       <c r="F403" s="20"/>
-      <c r="G403" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H403" s="39"/>
+      <c r="G403" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H403" s="39">
+        <v>1</v>
+      </c>
       <c r="I403" s="9"/>
       <c r="J403" s="11"/>
-      <c r="K403" s="20"/>
+      <c r="K403" s="48">
+        <v>45230</v>
+      </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
-        <v>45291</v>
-      </c>
-      <c r="B404" s="20"/>
+        <v>45260</v>
+      </c>
+      <c r="B404" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C404" s="13"/>
       <c r="D404" s="39"/>
       <c r="E404" s="9"/>
@@ -10621,14 +10638,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H404" s="39"/>
+      <c r="H404" s="39">
+        <v>2</v>
+      </c>
       <c r="I404" s="9"/>
       <c r="J404" s="11"/>
-      <c r="K404" s="20"/>
+      <c r="K404" s="20" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
-        <v>45322</v>
+        <v>45291</v>
       </c>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -10646,7 +10667,7 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -10664,7 +10685,7 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -10682,7 +10703,7 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -10700,7 +10721,7 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -10718,7 +10739,7 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -10736,7 +10757,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -10754,7 +10775,7 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -10772,7 +10793,7 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -10790,7 +10811,7 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -10808,7 +10829,7 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -10826,7 +10847,7 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -10844,7 +10865,7 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -10862,7 +10883,7 @@
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -10880,7 +10901,7 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -10898,7 +10919,7 @@
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -10916,7 +10937,7 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -10934,7 +10955,7 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -10952,7 +10973,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -10970,7 +10991,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -10988,7 +11009,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -11006,7 +11027,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -11024,7 +11045,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -11042,7 +11063,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
-        <v>46022</v>
+        <v>45991</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -11060,7 +11081,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
-        <v>46053</v>
+        <v>46022</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -11078,7 +11099,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
-        <v>46081</v>
+        <v>46053</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -11096,7 +11117,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
-        <v>46112</v>
+        <v>46081</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -11114,7 +11135,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
-        <v>46142</v>
+        <v>46112</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -11132,7 +11153,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
-        <v>46173</v>
+        <v>46142</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -11150,7 +11171,7 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
-        <v>46203</v>
+        <v>46173</v>
       </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11168,7 +11189,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
-        <v>46234</v>
+        <v>46203</v>
       </c>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11186,7 +11207,7 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
-        <v>46265</v>
+        <v>46234</v>
       </c>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11204,7 +11225,7 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
-        <v>46295</v>
+        <v>46265</v>
       </c>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -11222,7 +11243,7 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
-        <v>46326</v>
+        <v>46295</v>
       </c>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -11240,7 +11261,7 @@
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
-        <v>46356</v>
+        <v>46326</v>
       </c>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -11258,7 +11279,7 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
-        <v>46387</v>
+        <v>46356</v>
       </c>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -11276,7 +11297,7 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
-        <v>46418</v>
+        <v>46387</v>
       </c>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -11294,7 +11315,7 @@
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
-        <v>46446</v>
+        <v>46418</v>
       </c>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -11312,7 +11333,7 @@
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
-        <v>46477</v>
+        <v>46446</v>
       </c>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -11330,7 +11351,7 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
-        <v>46507</v>
+        <v>46477</v>
       </c>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -11348,7 +11369,7 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
-        <v>46538</v>
+        <v>46507</v>
       </c>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -11366,21 +11387,39 @@
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
+        <v>46538</v>
+      </c>
+      <c r="B446" s="20"/>
+      <c r="C446" s="13"/>
+      <c r="D446" s="39"/>
+      <c r="E446" s="9"/>
+      <c r="F446" s="20"/>
+      <c r="G446" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H446" s="39"/>
+      <c r="I446" s="9"/>
+      <c r="J446" s="11"/>
+      <c r="K446" s="20"/>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A447" s="40">
         <v>46568</v>
       </c>
-      <c r="B446" s="15"/>
-      <c r="C446" s="41"/>
-      <c r="D446" s="42"/>
-      <c r="E446" s="9"/>
-      <c r="F446" s="15"/>
-      <c r="G446" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H446" s="42"/>
-      <c r="I446" s="9"/>
-      <c r="J446" s="12"/>
-      <c r="K446" s="15"/>
+      <c r="B447" s="15"/>
+      <c r="C447" s="41"/>
+      <c r="D447" s="42"/>
+      <c r="E447" s="9"/>
+      <c r="F447" s="15"/>
+      <c r="G447" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H447" s="42"/>
+      <c r="I447" s="9"/>
+      <c r="J447" s="12"/>
+      <c r="K447" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11551,7 +11590,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>385.40300000000002</v>
+        <v>383.90300000000002</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
